--- a/WrittenLanguageDataTypes.xlsx
+++ b/WrittenLanguageDataTypes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karso\Desktop\PromptRecovery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9C3D0B-2463-40C6-A423-423187BE9F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A01A54-F3FE-46CC-AC95-1E546BD26A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10092" yWindow="0" windowWidth="12528" windowHeight="12336" xr2:uid="{3893CAB6-0FBF-4A73-858A-C7DF6F6B8EC1}"/>
+    <workbookView xWindow="9168" yWindow="2064" windowWidth="12528" windowHeight="8880" xr2:uid="{3893CAB6-0FBF-4A73-858A-C7DF6F6B8EC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Types" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="74">
   <si>
     <t>WikiTV2023.csv</t>
   </si>
@@ -240,13 +240,31 @@
   </si>
   <si>
     <t>https://huggingface.co/datasets/TeraflopAI/Caselaw_Access_Project</t>
+  </si>
+  <si>
+    <t>Texts</t>
+  </si>
+  <si>
+    <t>combine w/ Emails</t>
+  </si>
+  <si>
+    <t>textType</t>
+  </si>
+  <si>
+    <t>combine w/Texts</t>
+  </si>
+  <si>
+    <t>txt_msgs_clean.csv</t>
+  </si>
+  <si>
+    <t>email_msgs_clean.csv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +276,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -698,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192A6510-5D95-4AEA-8FBF-55B25D9B825C}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1080,18 +1104,20 @@
         <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="G15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1104,44 +1130,65 @@
         <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
@@ -1180,15 +1227,28 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F22">
-        <f>SUM(F2:F21)</f>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <f>SUM(F2:F22)</f>
         <v>30585</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H21">
-    <sortCondition descending="1" ref="A1:A21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H22">
+    <sortCondition descending="1" ref="A1:A22"/>
   </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:D1048576">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"Misc"</formula>

--- a/WrittenLanguageDataTypes.xlsx
+++ b/WrittenLanguageDataTypes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karso\Desktop\PromptRecovery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A01A54-F3FE-46CC-AC95-1E546BD26A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8772C76-641C-474B-9E59-2ACA6E017E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9168" yWindow="2064" windowWidth="12528" windowHeight="8880" xr2:uid="{3893CAB6-0FBF-4A73-858A-C7DF6F6B8EC1}"/>
+    <workbookView xWindow="9168" yWindow="0" windowWidth="12528" windowHeight="12336" xr2:uid="{3893CAB6-0FBF-4A73-858A-C7DF6F6B8EC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Types" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="79">
   <si>
     <t>WikiTV2023.csv</t>
   </si>
@@ -258,6 +258,21 @@
   </si>
   <si>
     <t>email_msgs_clean.csv</t>
+  </si>
+  <si>
+    <t>Interview Questions</t>
+  </si>
+  <si>
+    <t>Song Lyrics</t>
+  </si>
+  <si>
+    <t>Poems</t>
+  </si>
+  <si>
+    <t>Maxims</t>
+  </si>
+  <si>
+    <t>Quotes</t>
   </si>
 </sst>
 </file>
@@ -722,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192A6510-5D95-4AEA-8FBF-55B25D9B825C}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -770,83 +785,63 @@
         <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3">
-        <v>13734</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>74</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F4" s="3">
-        <v>30</v>
+        <v>13734</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>30</v>
@@ -855,16 +850,16 @@
         <v>35</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>38</v>
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>74</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -872,7 +867,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>31</v>
@@ -881,16 +876,16 @@
         <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -898,111 +893,111 @@
         <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="3">
-        <v>3898</v>
+        <v>66</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>38</v>
+        <v>2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>91</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="F9" s="3">
-        <v>6000</v>
+        <v>3898</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>15</v>
+      <c r="H9" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1380</v>
+        <v>37</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>59</v>
+      <c r="H10" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>30</v>
@@ -1011,76 +1006,66 @@
         <v>35</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F11" s="3">
-        <v>153</v>
+        <v>6000</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="F12" s="3">
-        <v>2208</v>
+        <v>1380</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="3">
-        <v>300</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>30</v>
@@ -1089,110 +1074,117 @@
         <v>35</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" s="3">
-        <v>2717</v>
+        <v>153</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2208</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>38</v>
+        <v>52</v>
+      </c>
+      <c r="F16" s="3">
+        <v>300</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2717</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="C19" s="1" t="s">
         <v>30</v>
       </c>
@@ -1203,53 +1195,156 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="C22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F23">
-        <f>SUM(F2:F22)</f>
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <f>SUM(F4:F27)</f>
         <v>30585</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H22">
-    <sortCondition descending="1" ref="A1:A22"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:H27">
+    <sortCondition descending="1" ref="A1:A27"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A2:D1048576">
+  <conditionalFormatting sqref="A2:A3 A4:D1048576">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"Misc"</formula>
     </cfRule>
@@ -1273,8 +1368,8 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H9" r:id="rId1" display="https://github.com/rowanz/hellaswag/blob/master/data/hellaswag_train.jsonl" xr:uid="{1B644A2B-414C-4D74-B239-5052551623BE}"/>
-    <hyperlink ref="H8" r:id="rId2" xr:uid="{453E49A5-1D9F-4C15-AB1F-E50584FEAE35}"/>
+    <hyperlink ref="H11" r:id="rId1" display="https://github.com/rowanz/hellaswag/blob/master/data/hellaswag_train.jsonl" xr:uid="{1B644A2B-414C-4D74-B239-5052551623BE}"/>
+    <hyperlink ref="H10" r:id="rId2" xr:uid="{453E49A5-1D9F-4C15-AB1F-E50584FEAE35}"/>
   </hyperlinks>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WrittenLanguageDataTypes.xlsx
+++ b/WrittenLanguageDataTypes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karso\Desktop\PromptRecovery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8772C76-641C-474B-9E59-2ACA6E017E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C289FF-EA10-4118-AF2C-E900A91549E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9168" yWindow="0" windowWidth="12528" windowHeight="12336" xr2:uid="{3893CAB6-0FBF-4A73-858A-C7DF6F6B8EC1}"/>
+    <workbookView xWindow="9168" yWindow="2064" windowWidth="12528" windowHeight="8880" xr2:uid="{3893CAB6-0FBF-4A73-858A-C7DF6F6B8EC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Types" sheetId="1" r:id="rId1"/>
@@ -739,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192A6510-5D95-4AEA-8FBF-55B25D9B825C}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="D14" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1281,7 +1281,7 @@
       <c r="G23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1370,9 +1370,10 @@
   <hyperlinks>
     <hyperlink ref="H11" r:id="rId1" display="https://github.com/rowanz/hellaswag/blob/master/data/hellaswag_train.jsonl" xr:uid="{1B644A2B-414C-4D74-B239-5052551623BE}"/>
     <hyperlink ref="H10" r:id="rId2" xr:uid="{453E49A5-1D9F-4C15-AB1F-E50584FEAE35}"/>
+    <hyperlink ref="H23" r:id="rId3" xr:uid="{69D104AC-CBFA-476B-A1DF-24AE157E40C0}"/>
   </hyperlinks>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" blackAndWhite="1" r:id="rId3"/>
+  <pageSetup orientation="portrait" blackAndWhite="1" r:id="rId4"/>
 </worksheet>
 </file>
--- a/WrittenLanguageDataTypes.xlsx
+++ b/WrittenLanguageDataTypes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karso\Desktop\PromptRecovery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C289FF-EA10-4118-AF2C-E900A91549E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B41761-C188-4EDB-BE00-6753667430FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9168" yWindow="2064" windowWidth="12528" windowHeight="8880" xr2:uid="{3893CAB6-0FBF-4A73-858A-C7DF6F6B8EC1}"/>
   </bookViews>
@@ -170,9 +170,6 @@
     <t>Medical Transcripts</t>
   </si>
   <si>
-    <t>Medical Type</t>
-  </si>
-  <si>
     <t>med_trans_clean.csv</t>
   </si>
   <si>
@@ -273,6 +270,9 @@
   </si>
   <si>
     <t>Quotes</t>
+  </si>
+  <si>
+    <t>Specialty Type</t>
   </si>
 </sst>
 </file>
@@ -739,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192A6510-5D95-4AEA-8FBF-55B25D9B825C}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D14" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -785,7 +785,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>30</v>
@@ -801,7 +801,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>30</v>
@@ -841,7 +841,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>30</v>
@@ -867,7 +867,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>31</v>
@@ -893,7 +893,7 @@
         <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>30</v>
@@ -902,7 +902,7 @@
         <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>38</v>
@@ -911,7 +911,7 @@
         <v>14</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -919,7 +919,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>31</v>
@@ -951,10 +951,10 @@
         <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F9" s="3">
         <v>3898</v>
@@ -963,7 +963,7 @@
         <v>14</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1020,19 +1020,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="F12" s="3">
         <v>1380</v>
@@ -1041,15 +1041,15 @@
         <v>14</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>30</v>
@@ -1065,7 +1065,7 @@
         <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>30</v>
@@ -1117,16 +1117,16 @@
         <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F16" s="3">
         <v>300</v>
@@ -1135,7 +1135,7 @@
         <v>14</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1167,7 +1167,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>30</v>
@@ -1183,7 +1183,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>30</v>
@@ -1199,16 +1199,16 @@
         <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>38</v>
@@ -1217,7 +1217,7 @@
         <v>14</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1225,16 +1225,16 @@
         <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>38</v>
@@ -1243,7 +1243,7 @@
         <v>14</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1251,7 +1251,7 @@
         <v>26</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>30</v>
@@ -1264,16 +1264,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>38</v>
@@ -1282,7 +1282,7 @@
         <v>14</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">

--- a/WrittenLanguageDataTypes.xlsx
+++ b/WrittenLanguageDataTypes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karso\Desktop\PromptRecovery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B41761-C188-4EDB-BE00-6753667430FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6A09A0-E654-477A-A6B5-26B08F40DFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9168" yWindow="2064" windowWidth="12528" windowHeight="8880" xr2:uid="{3893CAB6-0FBF-4A73-858A-C7DF6F6B8EC1}"/>
+    <workbookView xWindow="-24" yWindow="108" windowWidth="13080" windowHeight="11952" xr2:uid="{3893CAB6-0FBF-4A73-858A-C7DF6F6B8EC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Types" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="90">
   <si>
     <t>WikiTV2023.csv</t>
   </si>
@@ -47,18 +47,6 @@
     <t>WikiEspAI.csv</t>
   </si>
   <si>
-    <t>WikiAH.csv</t>
-  </si>
-  <si>
-    <t>BiblePrompts.csv</t>
-  </si>
-  <si>
-    <t>Psalm100-150NLT.csv</t>
-  </si>
-  <si>
-    <t>hellaslog.csv</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/List_of_Alfred_Hitchcock_Presents_episodes</t>
   </si>
   <si>
@@ -95,9 +83,6 @@
     <t>File</t>
   </si>
   <si>
-    <t>Records</t>
-  </si>
-  <si>
     <t>Tokens</t>
   </si>
   <si>
@@ -152,18 +137,12 @@
     <t>code.csv</t>
   </si>
   <si>
-    <t>300 *</t>
-  </si>
-  <si>
     <t>https://huggingface.co/datasets/codeparrot/github-code</t>
   </si>
   <si>
     <t>Essays</t>
   </si>
   <si>
-    <t>essays.csv</t>
-  </si>
-  <si>
     <t>https://www.kaggle.com/datasets/nbroad/gemma-rewrite-nbroad</t>
   </si>
   <si>
@@ -179,9 +158,6 @@
     <t>Wiki Movie Plots</t>
   </si>
   <si>
-    <t>Wiki Alfred Hitchcock epidsodes</t>
-  </si>
-  <si>
     <t>Wiki AI History</t>
   </si>
   <si>
@@ -206,9 +182,6 @@
     <t>SAT Questions</t>
   </si>
   <si>
-    <t>sat_qstns.csv</t>
-  </si>
-  <si>
     <t>Subject</t>
   </si>
   <si>
@@ -273,13 +246,73 @@
   </si>
   <si>
     <t>Specialty Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wiki Alfred Hitchcock </t>
+  </si>
+  <si>
+    <t>Clean?</t>
+  </si>
+  <si>
+    <t>Preprocessing:</t>
+  </si>
+  <si>
+    <t>1. Sample 300</t>
+  </si>
+  <si>
+    <t>2. 'text' &amp; 'label'</t>
+  </si>
+  <si>
+    <t>3. Drop index</t>
+  </si>
+  <si>
+    <t>sat_qstns_clean.csv</t>
+  </si>
+  <si>
+    <t>bible_clean.csv</t>
+  </si>
+  <si>
+    <t>OG Records</t>
+  </si>
+  <si>
+    <t>1.8 mil</t>
+  </si>
+  <si>
+    <t>115mil</t>
+  </si>
+  <si>
+    <t>tokenCount</t>
+  </si>
+  <si>
+    <t>essays_clean.csv</t>
+  </si>
+  <si>
+    <t>wikiAH_clean.csv</t>
+  </si>
+  <si>
+    <t>hellaSwag_clean.csv</t>
+  </si>
+  <si>
+    <t>psalms_clean.csv</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/datasets/Annanay/aml_song_lyrics_balanced/resolve/main/training.csv, https://huggingface.co/datasets/danioshi/incubus_taylor_swift_lyrics/raw/main/lyrics_dataset_all.csv</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/datasets/merve/poetry/raw/main/poetry.csv, https://huggingface.co/datasets/Georgii/poetry-genre/raw/main/en_poems_dataset.csv,</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/datasets/asuender/motivational-quotes/raw/main/quotes_extended.jsonl, https://huggingface.co/datasets/Abirate/english_quotes/resolve/main/quotes.jsonl, https://huggingface.co/datasets/hugginglearners/anime-quotes/blob/main/AnimeQuotes.csv</t>
+  </si>
+  <si>
+    <t>Proverbs (NLT)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,6 +334,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -310,7 +350,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -333,24 +373,125 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9B9B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -400,10 +541,18 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9B9B"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9B9B"/>
       <color rgb="FFFFB3B3"/>
       <color rgb="FFFFCCCC"/>
       <color rgb="FFFFFF99"/>
@@ -737,640 +886,779 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192A6510-5D95-4AEA-8FBF-55B25D9B825C}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.77734375" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="3.33203125" customWidth="1"/>
-    <col min="4" max="5" width="12.21875" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="64.21875" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="64.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H2" s="7"/>
+      <c r="I2" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H3" s="7"/>
+      <c r="I3" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3">
-        <v>13734</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>807</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
         <v>74</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
         <v>30</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>14</v>
+        <v>56</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
         <v>91</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>4999</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="3">
-        <v>3898</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="3">
+        <v>84</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
         <v>6000</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="3">
+        <v>76</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
         <v>1380</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="2"/>
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>153</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2166</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>153</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>34886</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2208</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>480</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15">
+        <v>915</v>
+      </c>
+      <c r="H19" s="16">
+        <v>20394</v>
+      </c>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="11">
+        <v>1</v>
+      </c>
+      <c r="G20" s="12">
+        <v>4825</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="1" t="s">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="3">
-        <v>300</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>44657</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2717</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>39538</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="2"/>
       <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="2"/>
       <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="2"/>
       <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="2"/>
       <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F28">
-        <f>SUM(F4:F27)</f>
-        <v>30585</v>
-      </c>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5">
+        <f>SUM(G4:G27)</f>
+        <v>141001</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:H27">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I27">
     <sortCondition descending="1" ref="A1:A27"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:A3 A4:D1048576">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"Misc"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"Interrogative"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"Declarative"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Colloquial"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"Prose"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>"Nonfiction"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
       <formula>"Fiction"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H11" r:id="rId1" display="https://github.com/rowanz/hellaswag/blob/master/data/hellaswag_train.jsonl" xr:uid="{1B644A2B-414C-4D74-B239-5052551623BE}"/>
-    <hyperlink ref="H10" r:id="rId2" xr:uid="{453E49A5-1D9F-4C15-AB1F-E50584FEAE35}"/>
-    <hyperlink ref="H23" r:id="rId3" xr:uid="{69D104AC-CBFA-476B-A1DF-24AE157E40C0}"/>
+    <hyperlink ref="I11" r:id="rId1" display="https://github.com/rowanz/hellaswag/blob/master/data/hellaswag_train.jsonl" xr:uid="{1B644A2B-414C-4D74-B239-5052551623BE}"/>
+    <hyperlink ref="I10" r:id="rId2" xr:uid="{453E49A5-1D9F-4C15-AB1F-E50584FEAE35}"/>
+    <hyperlink ref="I23" r:id="rId3" xr:uid="{69D104AC-CBFA-476B-A1DF-24AE157E40C0}"/>
   </hyperlinks>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
